--- a/data/trans_camb/P1417-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1417-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.471447306980638</v>
+        <v>-1.333813004484663</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.603059472046787</v>
+        <v>-1.643351400209293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.224586734353257</v>
+        <v>-1.486852925029715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6938084309613217</v>
+        <v>-0.684518861534547</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.741782209462389</v>
+        <v>-1.695394191173512</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5139146596015062</v>
+        <v>0.7404747704309815</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5094447942115816</v>
+        <v>-0.6644730410573521</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.124539819115513</v>
+        <v>-1.116748890706979</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1209919467842391</v>
+        <v>0.04009317884233225</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7278243201958421</v>
+        <v>0.8067224698062394</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4695494870259397</v>
+        <v>0.3467388774050976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.759495574564479</v>
+        <v>0.7051352427351183</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.577391271377905</v>
+        <v>3.272959692674</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.546399105620552</v>
+        <v>1.42378359144093</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.270336904661296</v>
+        <v>4.218004291037023</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.476541405526334</v>
+        <v>1.469691590399552</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5669945220008781</v>
+        <v>0.6176690183155746</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.130902583306358</v>
+        <v>2.071568850539735</v>
       </c>
     </row>
     <row r="7">
@@ -783,18 +783,18 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.6592287282974555</v>
+        <v>-0.6714564395587921</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>0.0661487359518976</v>
+        <v>0.003493556328527464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5389839811671595</v>
+        <v>-0.5839814529943377</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="n">
-        <v>-0.09579188883499314</v>
+        <v>-0.1317653213031454</v>
       </c>
     </row>
     <row r="9">
@@ -808,18 +808,16 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>11.76951931907873</v>
+        <v>8.914368544224708</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>11.96489436165889</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>4.691431931616804</v>
+        <v>4.836728042324593</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="n">
-        <v>8.497941286149441</v>
+        <v>7.612789044895692</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +847,7 @@
         <v>-0.114952395223838</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.893511675777021</v>
+        <v>1.893511675777022</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2594574218549918</v>
@@ -869,31 +867,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7551821715314334</v>
+        <v>-0.9928681798454159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2472916955098001</v>
+        <v>-0.2535350482364522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1845394600648742</v>
+        <v>-0.3176966642130024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.3271672733999</v>
+        <v>-1.175194395754054</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.001465470963721</v>
+        <v>-1.756832760647617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.01972502188334058</v>
+        <v>-0.006334916034761686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8463430546387138</v>
+        <v>-0.7311276487791124</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7283100993157089</v>
+        <v>-0.7632606391634612</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0750751036870643</v>
+        <v>0.04910939946761888</v>
       </c>
     </row>
     <row r="12">
@@ -904,31 +902,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4983491148947204</v>
+        <v>0.4994969954941593</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.838364906868271</v>
+        <v>1.841263479336427</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.640681251950234</v>
+        <v>1.444176857478497</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.832715959518381</v>
+        <v>2.948192970727427</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.501996430586608</v>
+        <v>1.645026317869045</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.729085273481676</v>
+        <v>3.713825620049757</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.326646308065924</v>
+        <v>1.393505277774246</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.231849744383174</v>
+        <v>1.152485218866759</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.116585764311106</v>
+        <v>2.113144337241103</v>
       </c>
     </row>
     <row r="13">
@@ -954,7 +952,7 @@
         <v>-0.08047335139897309</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.325568120317546</v>
+        <v>1.325568120317547</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3081289557523861</v>
@@ -977,22 +975,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.6590474706327949</v>
+        <v>-0.6425311390699513</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8548488950243269</v>
+        <v>-0.804889205583236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1520841854455521</v>
+        <v>-0.1152278633647069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6203814953932266</v>
+        <v>-0.59415556419805</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6258939878415732</v>
+        <v>-0.6372273776355625</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.008357906881970878</v>
+        <v>-0.08474668375252517</v>
       </c>
     </row>
     <row r="15">
@@ -1006,22 +1004,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4.774778600495741</v>
+        <v>5.623191952083086</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.77991178223269</v>
+        <v>4.042182664214291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.504584271484806</v>
+        <v>9.27066598977858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.894123705016288</v>
+        <v>4.624015281932399</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.155983820916575</v>
+        <v>2.607864985259477</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.812160078342023</v>
+        <v>5.768949385683886</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1040,7 @@
         <v>0.3686331264685426</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8748023948505804</v>
+        <v>0.8748023948505805</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.698557612667605</v>
@@ -1071,31 +1069,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.500433582751937</v>
+        <v>-1.5072449300332</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6704004976581308</v>
+        <v>-0.7747169263857667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3160653474132291</v>
+        <v>-0.2738987059457633</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.587529650033556</v>
+        <v>-5.734938023258291</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.341910178036757</v>
+        <v>-3.462570825608623</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.147154873365277</v>
+        <v>-2.953446780275652</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.915379414456101</v>
+        <v>-1.722011457693734</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8439675942247047</v>
+        <v>-0.8261610114439939</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3780425247107633</v>
+        <v>-0.3583066079568805</v>
       </c>
     </row>
     <row r="18">
@@ -1106,31 +1104,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1718699300002694</v>
+        <v>0.1697882074591078</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.622486057465603</v>
+        <v>1.536498793100077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.232964860907849</v>
+        <v>2.308250952382373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9858713925329374</v>
+        <v>1.10937372329067</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.181973236578035</v>
+        <v>4.996220237631099</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.455371785559657</v>
+        <v>4.528051157598104</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1840382101524485</v>
+        <v>0.2869742166433707</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.76808427922185</v>
+        <v>1.808088629606506</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.318651760395696</v>
+        <v>2.318079026223189</v>
       </c>
     </row>
     <row r="19">
@@ -1165,7 +1163,7 @@
         <v>0.361696280024466</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7921922870779126</v>
+        <v>0.7921922870779128</v>
       </c>
     </row>
     <row r="20">
@@ -1176,27 +1174,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.9969655845269663</v>
+      </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5311837780909151</v>
+        <v>-0.6011258886110782</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8837367801390733</v>
+        <v>-0.8875524367009672</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.663377257001055</v>
+        <v>-0.6726925626849308</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5564048555953306</v>
+        <v>-0.5380741129575713</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8752505804558089</v>
+        <v>-0.864265330810124</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4873366667000665</v>
+        <v>-0.5168761737879325</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.296100394581947</v>
+        <v>-0.2595529861971598</v>
       </c>
     </row>
     <row r="21">
@@ -1207,27 +1207,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr"/>
-      <c r="D21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>6.447366199062031</v>
+      </c>
       <c r="E21" s="6" t="n">
-        <v>14.39278123273864</v>
+        <v>11.49746960964144</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9872985347819461</v>
+        <v>0.9855287053983527</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.319552818967109</v>
+        <v>2.988224754596914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.674203001581434</v>
+        <v>2.547670749184873</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4215242079766671</v>
+        <v>0.7407921528362876</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.58214383001836</v>
+        <v>2.488730529055074</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.005624636799404</v>
+        <v>3.084861491701823</v>
       </c>
     </row>
     <row r="22">
@@ -1277,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04128663564378419</v>
+        <v>0.0388998856762942</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1231648239088239</v>
+        <v>-0.06911889563505644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7230197776308851</v>
+        <v>0.6177137705418874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3438966113036953</v>
+        <v>-0.3749218957258285</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.1827364234291527</v>
+        <v>-0.2246654901171387</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7117167287521985</v>
+        <v>0.6619182182283887</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1322915770724674</v>
+        <v>0.1324760305150745</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09308838736506508</v>
+        <v>0.140668083531959</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9476102215538718</v>
+        <v>0.9440071016441078</v>
       </c>
     </row>
     <row r="24">
@@ -1312,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.134854123814211</v>
+        <v>1.090676166992855</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8028872440622236</v>
+        <v>0.8016035655084639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.028317311240994</v>
+        <v>1.928545867797735</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.222159512576694</v>
+        <v>2.321391885451435</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.371877182367502</v>
+        <v>2.322612309261679</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.243778564213402</v>
+        <v>3.210302834776886</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.366802079122843</v>
+        <v>1.293415371934809</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.284124322998626</v>
+        <v>1.293014737814514</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.27435805850444</v>
+        <v>2.221565695396716</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1373,7 @@
         <v>1.183222613636503</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.880626224649241</v>
+        <v>2.880626224649242</v>
       </c>
     </row>
     <row r="26">
@@ -1382,31 +1384,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5274748856912016</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5002461678723009</v>
+      </c>
+      <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>1.123933101860869</v>
+        <v>0.9571009926438284</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2909895421567384</v>
+        <v>-0.3140780899670371</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1643742579952662</v>
+        <v>-0.1951379954462635</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2906892974732825</v>
+        <v>0.2606781557699139</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04565577249863463</v>
+        <v>0.14748765359868</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03295922859622551</v>
+        <v>0.1288638326731859</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.04051081840253</v>
+        <v>0.9912485215534806</v>
       </c>
     </row>
     <row r="27">
@@ -1420,22 +1420,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3.135315165874509</v>
+        <v>3.327535353400259</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.101842052431341</v>
+        <v>3.31896765148181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.17728386605462</v>
+        <v>5.032901691904789</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.91453950089082</v>
+        <v>4.474889703263835</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.020303744968235</v>
+        <v>3.713604882927959</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7.210217895721949</v>
+        <v>6.558011969812211</v>
       </c>
     </row>
     <row r="28">
@@ -1474,7 +1474,7 @@
         <v>0.8007902518966423</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.218274455005533</v>
+        <v>3.218274455005532</v>
       </c>
     </row>
     <row r="29">
@@ -1485,31 +1485,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.197596881648491</v>
+        <v>-1.995177417272497</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.412440220676769</v>
+        <v>-2.364518928333585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6818665703543619</v>
+        <v>-0.6471302749606842</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3772076124197034</v>
+        <v>0.1931806471154111</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2849641602520905</v>
+        <v>0.3321912736688168</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.851555511006945</v>
+        <v>2.709041299695663</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1540824210017349</v>
+        <v>-0.2042425485624529</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5930458461333773</v>
+        <v>-0.6459798866191402</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.886395467932618</v>
+        <v>1.871158982342732</v>
       </c>
     </row>
     <row r="30">
@@ -1520,31 +1520,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6634744053493535</v>
+        <v>0.6634012385401229</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2332468797237067</v>
+        <v>0.2239934504304289</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.610119960614071</v>
+        <v>2.51724267282672</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.341038789458951</v>
+        <v>4.34924598853781</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.21984368500368</v>
+        <v>4.074026304615582</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.720580981060713</v>
+        <v>6.492769198755406</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.501899512241305</v>
+        <v>2.475969693878086</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.124695742029397</v>
+        <v>1.919074374104921</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.530369575639339</v>
+        <v>4.350606381923876</v>
       </c>
     </row>
     <row r="31">
@@ -1579,7 +1579,7 @@
         <v>0.4680746200561363</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.881132530266507</v>
+        <v>1.881132530266506</v>
       </c>
     </row>
     <row r="32">
@@ -1589,30 +1589,32 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr"/>
+      <c r="C32" s="6" t="n">
+        <v>-0.9022560486268155</v>
+      </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.413237326568455</v>
+        <v>-0.3829019562053347</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01057211653587465</v>
+        <v>0.0001829303654914127</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01318853492521506</v>
+        <v>0.05002411631970891</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8398742179843064</v>
+        <v>0.6531787736481983</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06798557417105006</v>
+        <v>-0.1187459757578922</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2518250052753677</v>
+        <v>-0.2608565340270109</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6296770709946308</v>
+        <v>0.6680505770301534</v>
       </c>
     </row>
     <row r="33">
@@ -1622,30 +1624,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr"/>
+      <c r="C33" s="6" t="n">
+        <v>1.42562857504019</v>
+      </c>
       <c r="D33" s="6" t="n">
-        <v>1.142478138812455</v>
+        <v>1.337365040816275</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.104026493283309</v>
+        <v>4.469964546646034</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.74364192741781</v>
+        <v>3.624235760576094</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.624298283484069</v>
+        <v>3.329239876971329</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>7.111383510119214</v>
+        <v>5.341791988846492</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.349312857753517</v>
+        <v>2.258117591502462</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.880102455388671</v>
+        <v>1.827711556922972</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>4.225692616497592</v>
+        <v>3.901651867656991</v>
       </c>
     </row>
     <row r="34">
@@ -1700,22 +1704,22 @@
       </c>
       <c r="E35" s="5" t="inlineStr"/>
       <c r="F35" s="5" t="n">
-        <v>-0.73842866864122</v>
+        <v>-0.5885983330550734</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.117835652929567</v>
+        <v>-1.045371492331465</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.264329800370215</v>
+        <v>1.218532182252153</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3891608293693964</v>
+        <v>-0.5251938106447123</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.8038906080732082</v>
+        <v>-0.736124003561439</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.9075055032319738</v>
+        <v>0.9460853130339102</v>
       </c>
     </row>
     <row r="36">
@@ -1727,26 +1731,26 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>2.524510188573719</v>
+        <v>2.471463972505888</v>
       </c>
       <c r="E36" s="5" t="inlineStr"/>
       <c r="F36" s="5" t="n">
-        <v>1.853882407259475</v>
+        <v>1.814429380175266</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.128251931596446</v>
+        <v>1.278875947178371</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.383273757638075</v>
+        <v>4.208862387073229</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.483717818052753</v>
+        <v>1.404564575648322</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.102970025911339</v>
+        <v>1.107250581971367</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.391989322710242</v>
+        <v>3.549070964623165</v>
       </c>
     </row>
     <row r="37">
@@ -1793,22 +1797,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3175738638659634</v>
+        <v>-0.2664877572269529</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4666184682602312</v>
+        <v>-0.4547712603418218</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4683761087617461</v>
+        <v>0.4550528330143561</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2466077990197458</v>
+        <v>-0.2594608040677767</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4253497387469514</v>
+        <v>-0.3955164173661697</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4354480635864696</v>
+        <v>0.4131356581748292</v>
       </c>
     </row>
     <row r="39">
@@ -1822,22 +1826,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.417382460528708</v>
+        <v>1.423146126092868</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8580004108798344</v>
+        <v>0.9472745445471272</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.675569569573409</v>
+        <v>2.919933488318997</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.356032008707461</v>
+        <v>1.249505737999982</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.061560358717379</v>
+        <v>1.03600930661368</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.127283762324792</v>
+        <v>3.162161594777676</v>
       </c>
     </row>
     <row r="40">
@@ -1858,7 +1862,7 @@
         <v>0.1517737881923489</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.8108018637326926</v>
+        <v>0.8108018637326921</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.9861562353498884</v>
@@ -1876,7 +1880,7 @@
         <v>0.4431116244984134</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.803114288541709</v>
+        <v>1.803114288541708</v>
       </c>
     </row>
     <row r="41">
@@ -1887,31 +1891,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3218247005546578</v>
+        <v>-0.2741220796310463</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.2131417190300245</v>
+        <v>-0.2000671917502841</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.4168405642040752</v>
+        <v>0.3819229105627054</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.2725361102551523</v>
+        <v>0.3391529132350168</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.07899625896132935</v>
+        <v>0.06293436274194089</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.958367752393521</v>
+        <v>1.973101975847192</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.1226628794250194</v>
+        <v>0.1024319330418937</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.06776356779130933</v>
+        <v>0.04326927806469465</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.384542879228136</v>
+        <v>1.427157688989299</v>
       </c>
     </row>
     <row r="42">
@@ -1922,31 +1926,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.3308819757594896</v>
+        <v>0.3851845654416353</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.4955462443869628</v>
+        <v>0.5093818636067039</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.242679888738736</v>
+        <v>1.209937679324928</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.705078860155406</v>
+        <v>1.727730449263968</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.3976956928838</v>
+        <v>1.41725890019626</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.449605992647475</v>
+        <v>3.49251283825833</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.9178428074965668</v>
+        <v>0.9351160288441456</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.8708491206442461</v>
+        <v>0.8307240782803916</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.267877120146349</v>
+        <v>2.251675984822848</v>
       </c>
     </row>
     <row r="43">
@@ -1963,7 +1967,7 @@
         <v>0.3681693051161003</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.966824194827291</v>
+        <v>1.96682419482729</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5776294242891917</v>
@@ -1972,7 +1976,7 @@
         <v>0.419541042145372</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.59850459271941</v>
+        <v>1.598504592719411</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4861806542413393</v>
@@ -1981,7 +1985,7 @@
         <v>0.4140242401227268</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.684751610867715</v>
+        <v>1.684751610867714</v>
       </c>
     </row>
     <row r="44">
@@ -1992,31 +1996,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.567837199875817</v>
+        <v>-0.4835470690432135</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.389899632679561</v>
+        <v>-0.3745863492185036</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5086083685623379</v>
+        <v>0.5613981262111083</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1051272815454554</v>
+        <v>0.1581212586289862</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03299056237971357</v>
+        <v>0.0140886355254304</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9369438772892462</v>
+        <v>0.913662944112149</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08759293739698498</v>
+        <v>0.08488188693204027</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.04091826356064647</v>
+        <v>0.02194999442290875</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.041659698335469</v>
+        <v>1.093808258307941</v>
       </c>
     </row>
     <row r="45">
@@ -2027,31 +2031,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.378277933386189</v>
+        <v>1.605667320711225</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.005620749451913</v>
+        <v>1.950465043125418</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>5.163314284707433</v>
+        <v>4.918279496348502</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.15925691250648</v>
+        <v>1.219359480284734</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.036893066795371</v>
+        <v>1.026573920826085</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.51140210893413</v>
+        <v>2.507274371527603</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.018755822476989</v>
+        <v>1.056838490684069</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.002939301144868</v>
+        <v>0.9096595616979355</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.551798862075067</v>
+        <v>2.496873230054208</v>
       </c>
     </row>
     <row r="46">
